--- a/flows/SGOL_fund_flow_data.xlsx
+++ b/flows/SGOL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1298"/>
+  <dimension ref="A1:B1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13415,6 +13415,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>6.2187</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
